--- a/data/test-data.xlsx
+++ b/data/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cor/github/godatadriven/dbt-excel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E40DF7-B80A-584B-A1B7-19E9B24A1EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BA84F-7BBF-6F4C-B59F-0328F6593316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
